--- a/po_analysis_by_asin/B08R5736B3_po_data.xlsx
+++ b/po_analysis_by_asin/B08R5736B3_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,209 +452,529 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1230</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>960</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>3560</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>180</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45390</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45418</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>460</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45432</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45453</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45460</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45467</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45481</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45488</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45495</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45509</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>1060</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45523</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45537</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45551</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45558</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>260</v>
+        <v>950</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45565</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45572</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45579</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>740</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45607</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B27" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B67" t="n">
         <v>160</v>
       </c>
     </row>
@@ -669,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,89 +1011,177 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2400</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>3560</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>340</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>620</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>220</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1040</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>520</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1560</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>160</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B08R5736B3_po_data.xlsx
+++ b/po_analysis_by_asin/B08R5736B3_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1006,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1183,6 +1184,1083 @@
       </c>
       <c r="B23" t="n">
         <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>445</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-289.9409588972224</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1170.761440855442</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>444</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-272.7049641612792</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1125.04387693149</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>444</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-267.4164165108588</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1177.383370957601</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>444</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-300.0859986122487</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1141.682790943038</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>443</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-264.0231526242285</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1156.61178402286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>443</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-226.7208667268627</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1201.7398784694</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>443</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-285.2828192877815</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1149.209291684685</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>443</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-322.8281899918424</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1165.410275825284</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>442</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-295.3394124853311</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1187.811057149449</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>442</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-272.2445277506508</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1192.59236598972</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>442</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-259.4499077277126</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1163.48216222271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>442</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-277.6303417628422</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1139.363541969878</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>441</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-236.1343642208084</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1209.64983381655</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>441</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-293.5230963837663</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1172.343190964977</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>441</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-235.4071189153025</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1146.260087273062</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>441</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-222.1954638793226</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1145.693420719175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>440</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-287.2940438139869</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1209.069025946299</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>440</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-287.2891858040741</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1142.290619836013</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>440</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-287.7944019080864</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1150.05362590087</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>440</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-255.3802885461564</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1124.330107436275</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>439</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-277.5542107735411</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1155.784923018085</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>439</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-267.5269972890526</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1114.73655226225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>439</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-324.6194692882771</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1182.454140646808</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>439</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-240.9428942336119</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1161.477872325344</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>438</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-283.189072081649</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1184.90817639937</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>438</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-315.9947911123787</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1095.072181497601</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>438</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-268.0415365312645</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1136.156492554238</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>437</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-322.1117810751449</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1198.599044169901</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>437</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-292.6633915263756</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1165.747446948848</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>437</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-260.5856831749215</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1170.376999604603</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>437</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-267.3305746432385</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1101.692841329283</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>437</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-270.3589020215453</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1150.260294127405</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>436</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-277.559285699939</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1222.976595590683</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>436</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-255.0137589501467</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1185.613732181555</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>436</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-301.4605728614911</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1174.54940367599</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>435</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-303.733369700765</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1157.925395357676</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>435</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-265.4531056192395</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1174.96711300128</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>435</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-265.4477751584012</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1161.377419664424</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>435</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-233.8646644867202</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1140.001547907186</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>434</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-292.25500030979</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1148.233255855973</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>433</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-300.1546114286565</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1210.645039265828</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>433</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-274.3922962494012</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1131.563875615925</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>433</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-278.7485430109724</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1135.364406132843</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>432</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-257.6430405722757</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1150.538606578244</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>432</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-304.3963511850745</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1150.71091804669</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>432</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-268.6026753639314</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1131.248647130403</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>431</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-307.5047548940352</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1138.495372553598</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>430</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-221.3478354984539</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1124.870803562139</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>430</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-279.0346520829982</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1184.61770948408</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>429</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-296.8648814419495</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1150.734661345675</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>429</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-252.7803788169764</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1166.386281406363</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>428</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-341.2218369918426</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1115.316386214578</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>428</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-308.4127081123312</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1105.547589357853</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>428</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-357.1705234293216</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1137.943748141013</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>427</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-360.6198226234575</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1158.871411361449</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>427</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-309.7722825454156</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1170.669213845321</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>427</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-259.931261529991</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1239.455427029765</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>427</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-297.4966336919891</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1179.992451141247</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>426</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-321.4190844288645</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1157.36347353476</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>426</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-291.9211550387095</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1158.024698614707</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>425</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-293.9558072217337</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1133.026220681679</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>425</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-298.5516582651163</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1135.484846889625</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>425</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-353.5755395998383</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1132.763121665733</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>425</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-361.2469930843484</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1135.837922402386</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>424</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-281.3460587909236</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1188.599110399139</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>424</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-341.3143876699858</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1135.529793030595</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>423</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-316.1159139548205</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1139.89194758739</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>423</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-313.1568609574044</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1174.207007610303</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>423</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-282.6540446506584</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1122.784308938292</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>423</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-259.2966762652333</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1128.491520893191</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>422</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-236.1988337576491</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1146.735805268781</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>422</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-330.2596461055865</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1137.033407572068</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>422</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-331.2953536989633</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1118.547467434849</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>422</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-301.6729839802035</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1086.944740013963</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08R5736B3_po_data.xlsx
+++ b/po_analysis_by_asin/B08R5736B3_po_data.xlsx
@@ -1197,7 +1197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1216,16 +1216,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1234,12 +1224,6 @@
       <c r="B2" t="n">
         <v>445</v>
       </c>
-      <c r="C2" t="n">
-        <v>-289.9409588972224</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1170.761440855442</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1248,12 +1232,6 @@
       <c r="B3" t="n">
         <v>444</v>
       </c>
-      <c r="C3" t="n">
-        <v>-272.7049641612792</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1125.04387693149</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1262,12 +1240,6 @@
       <c r="B4" t="n">
         <v>444</v>
       </c>
-      <c r="C4" t="n">
-        <v>-267.4164165108588</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1177.383370957601</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1276,12 +1248,6 @@
       <c r="B5" t="n">
         <v>444</v>
       </c>
-      <c r="C5" t="n">
-        <v>-300.0859986122487</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1141.682790943038</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1290,12 +1256,6 @@
       <c r="B6" t="n">
         <v>443</v>
       </c>
-      <c r="C6" t="n">
-        <v>-264.0231526242285</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1156.61178402286</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1304,12 +1264,6 @@
       <c r="B7" t="n">
         <v>443</v>
       </c>
-      <c r="C7" t="n">
-        <v>-226.7208667268627</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1201.7398784694</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1318,12 +1272,6 @@
       <c r="B8" t="n">
         <v>443</v>
       </c>
-      <c r="C8" t="n">
-        <v>-285.2828192877815</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1149.209291684685</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1332,12 +1280,6 @@
       <c r="B9" t="n">
         <v>443</v>
       </c>
-      <c r="C9" t="n">
-        <v>-322.8281899918424</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1165.410275825284</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1346,12 +1288,6 @@
       <c r="B10" t="n">
         <v>442</v>
       </c>
-      <c r="C10" t="n">
-        <v>-295.3394124853311</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1187.811057149449</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1360,12 +1296,6 @@
       <c r="B11" t="n">
         <v>442</v>
       </c>
-      <c r="C11" t="n">
-        <v>-272.2445277506508</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1192.59236598972</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1374,12 +1304,6 @@
       <c r="B12" t="n">
         <v>442</v>
       </c>
-      <c r="C12" t="n">
-        <v>-259.4499077277126</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1163.48216222271</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1388,12 +1312,6 @@
       <c r="B13" t="n">
         <v>442</v>
       </c>
-      <c r="C13" t="n">
-        <v>-277.6303417628422</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1139.363541969878</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1402,12 +1320,6 @@
       <c r="B14" t="n">
         <v>441</v>
       </c>
-      <c r="C14" t="n">
-        <v>-236.1343642208084</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1209.64983381655</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1416,12 +1328,6 @@
       <c r="B15" t="n">
         <v>441</v>
       </c>
-      <c r="C15" t="n">
-        <v>-293.5230963837663</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1172.343190964977</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1430,12 +1336,6 @@
       <c r="B16" t="n">
         <v>441</v>
       </c>
-      <c r="C16" t="n">
-        <v>-235.4071189153025</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1146.260087273062</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1444,12 +1344,6 @@
       <c r="B17" t="n">
         <v>441</v>
       </c>
-      <c r="C17" t="n">
-        <v>-222.1954638793226</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1145.693420719175</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1458,12 +1352,6 @@
       <c r="B18" t="n">
         <v>440</v>
       </c>
-      <c r="C18" t="n">
-        <v>-287.2940438139869</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1209.069025946299</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1472,12 +1360,6 @@
       <c r="B19" t="n">
         <v>440</v>
       </c>
-      <c r="C19" t="n">
-        <v>-287.2891858040741</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1142.290619836013</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1486,12 +1368,6 @@
       <c r="B20" t="n">
         <v>440</v>
       </c>
-      <c r="C20" t="n">
-        <v>-287.7944019080864</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1150.05362590087</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1500,12 +1376,6 @@
       <c r="B21" t="n">
         <v>440</v>
       </c>
-      <c r="C21" t="n">
-        <v>-255.3802885461564</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1124.330107436275</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1514,12 +1384,6 @@
       <c r="B22" t="n">
         <v>439</v>
       </c>
-      <c r="C22" t="n">
-        <v>-277.5542107735411</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1155.784923018085</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1528,12 +1392,6 @@
       <c r="B23" t="n">
         <v>439</v>
       </c>
-      <c r="C23" t="n">
-        <v>-267.5269972890526</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1114.73655226225</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1542,12 +1400,6 @@
       <c r="B24" t="n">
         <v>439</v>
       </c>
-      <c r="C24" t="n">
-        <v>-324.6194692882771</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1182.454140646808</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1556,12 +1408,6 @@
       <c r="B25" t="n">
         <v>439</v>
       </c>
-      <c r="C25" t="n">
-        <v>-240.9428942336119</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1161.477872325344</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1570,12 +1416,6 @@
       <c r="B26" t="n">
         <v>438</v>
       </c>
-      <c r="C26" t="n">
-        <v>-283.189072081649</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1184.90817639937</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1584,12 +1424,6 @@
       <c r="B27" t="n">
         <v>438</v>
       </c>
-      <c r="C27" t="n">
-        <v>-315.9947911123787</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1095.072181497601</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1598,12 +1432,6 @@
       <c r="B28" t="n">
         <v>438</v>
       </c>
-      <c r="C28" t="n">
-        <v>-268.0415365312645</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1136.156492554238</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1612,12 +1440,6 @@
       <c r="B29" t="n">
         <v>437</v>
       </c>
-      <c r="C29" t="n">
-        <v>-322.1117810751449</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1198.599044169901</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1626,12 +1448,6 @@
       <c r="B30" t="n">
         <v>437</v>
       </c>
-      <c r="C30" t="n">
-        <v>-292.6633915263756</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1165.747446948848</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1640,12 +1456,6 @@
       <c r="B31" t="n">
         <v>437</v>
       </c>
-      <c r="C31" t="n">
-        <v>-260.5856831749215</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1170.376999604603</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1654,12 +1464,6 @@
       <c r="B32" t="n">
         <v>437</v>
       </c>
-      <c r="C32" t="n">
-        <v>-267.3305746432385</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1101.692841329283</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1668,12 +1472,6 @@
       <c r="B33" t="n">
         <v>437</v>
       </c>
-      <c r="C33" t="n">
-        <v>-270.3589020215453</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1150.260294127405</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1682,12 +1480,6 @@
       <c r="B34" t="n">
         <v>436</v>
       </c>
-      <c r="C34" t="n">
-        <v>-277.559285699939</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1222.976595590683</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1696,12 +1488,6 @@
       <c r="B35" t="n">
         <v>436</v>
       </c>
-      <c r="C35" t="n">
-        <v>-255.0137589501467</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1185.613732181555</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1710,12 +1496,6 @@
       <c r="B36" t="n">
         <v>436</v>
       </c>
-      <c r="C36" t="n">
-        <v>-301.4605728614911</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1174.54940367599</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1724,12 +1504,6 @@
       <c r="B37" t="n">
         <v>435</v>
       </c>
-      <c r="C37" t="n">
-        <v>-303.733369700765</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1157.925395357676</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1738,12 +1512,6 @@
       <c r="B38" t="n">
         <v>435</v>
       </c>
-      <c r="C38" t="n">
-        <v>-265.4531056192395</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1174.96711300128</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1752,12 +1520,6 @@
       <c r="B39" t="n">
         <v>435</v>
       </c>
-      <c r="C39" t="n">
-        <v>-265.4477751584012</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1161.377419664424</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1766,12 +1528,6 @@
       <c r="B40" t="n">
         <v>435</v>
       </c>
-      <c r="C40" t="n">
-        <v>-233.8646644867202</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1140.001547907186</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1780,12 +1536,6 @@
       <c r="B41" t="n">
         <v>434</v>
       </c>
-      <c r="C41" t="n">
-        <v>-292.25500030979</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1148.233255855973</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1794,12 +1544,6 @@
       <c r="B42" t="n">
         <v>433</v>
       </c>
-      <c r="C42" t="n">
-        <v>-300.1546114286565</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1210.645039265828</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1808,12 +1552,6 @@
       <c r="B43" t="n">
         <v>433</v>
       </c>
-      <c r="C43" t="n">
-        <v>-274.3922962494012</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1131.563875615925</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1822,12 +1560,6 @@
       <c r="B44" t="n">
         <v>433</v>
       </c>
-      <c r="C44" t="n">
-        <v>-278.7485430109724</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1135.364406132843</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1836,12 +1568,6 @@
       <c r="B45" t="n">
         <v>432</v>
       </c>
-      <c r="C45" t="n">
-        <v>-257.6430405722757</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1150.538606578244</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1850,12 +1576,6 @@
       <c r="B46" t="n">
         <v>432</v>
       </c>
-      <c r="C46" t="n">
-        <v>-304.3963511850745</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1150.71091804669</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1864,12 +1584,6 @@
       <c r="B47" t="n">
         <v>432</v>
       </c>
-      <c r="C47" t="n">
-        <v>-268.6026753639314</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1131.248647130403</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1878,12 +1592,6 @@
       <c r="B48" t="n">
         <v>431</v>
       </c>
-      <c r="C48" t="n">
-        <v>-307.5047548940352</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1138.495372553598</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1892,12 +1600,6 @@
       <c r="B49" t="n">
         <v>430</v>
       </c>
-      <c r="C49" t="n">
-        <v>-221.3478354984539</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1124.870803562139</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1906,12 +1608,6 @@
       <c r="B50" t="n">
         <v>430</v>
       </c>
-      <c r="C50" t="n">
-        <v>-279.0346520829982</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1184.61770948408</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1920,12 +1616,6 @@
       <c r="B51" t="n">
         <v>429</v>
       </c>
-      <c r="C51" t="n">
-        <v>-296.8648814419495</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1150.734661345675</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1934,12 +1624,6 @@
       <c r="B52" t="n">
         <v>429</v>
       </c>
-      <c r="C52" t="n">
-        <v>-252.7803788169764</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1166.386281406363</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1948,12 +1632,6 @@
       <c r="B53" t="n">
         <v>428</v>
       </c>
-      <c r="C53" t="n">
-        <v>-341.2218369918426</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1115.316386214578</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1962,12 +1640,6 @@
       <c r="B54" t="n">
         <v>428</v>
       </c>
-      <c r="C54" t="n">
-        <v>-308.4127081123312</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1105.547589357853</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1976,12 +1648,6 @@
       <c r="B55" t="n">
         <v>428</v>
       </c>
-      <c r="C55" t="n">
-        <v>-357.1705234293216</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1137.943748141013</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1990,12 +1656,6 @@
       <c r="B56" t="n">
         <v>427</v>
       </c>
-      <c r="C56" t="n">
-        <v>-360.6198226234575</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1158.871411361449</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2004,12 +1664,6 @@
       <c r="B57" t="n">
         <v>427</v>
       </c>
-      <c r="C57" t="n">
-        <v>-309.7722825454156</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1170.669213845321</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2018,12 +1672,6 @@
       <c r="B58" t="n">
         <v>427</v>
       </c>
-      <c r="C58" t="n">
-        <v>-259.931261529991</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1239.455427029765</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2032,12 +1680,6 @@
       <c r="B59" t="n">
         <v>427</v>
       </c>
-      <c r="C59" t="n">
-        <v>-297.4966336919891</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1179.992451141247</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2046,12 +1688,6 @@
       <c r="B60" t="n">
         <v>426</v>
       </c>
-      <c r="C60" t="n">
-        <v>-321.4190844288645</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1157.36347353476</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2060,12 +1696,6 @@
       <c r="B61" t="n">
         <v>426</v>
       </c>
-      <c r="C61" t="n">
-        <v>-291.9211550387095</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1158.024698614707</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2074,12 +1704,6 @@
       <c r="B62" t="n">
         <v>425</v>
       </c>
-      <c r="C62" t="n">
-        <v>-293.9558072217337</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1133.026220681679</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2088,12 +1712,6 @@
       <c r="B63" t="n">
         <v>425</v>
       </c>
-      <c r="C63" t="n">
-        <v>-298.5516582651163</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1135.484846889625</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2102,12 +1720,6 @@
       <c r="B64" t="n">
         <v>425</v>
       </c>
-      <c r="C64" t="n">
-        <v>-353.5755395998383</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1132.763121665733</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2116,12 +1728,6 @@
       <c r="B65" t="n">
         <v>425</v>
       </c>
-      <c r="C65" t="n">
-        <v>-361.2469930843484</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1135.837922402386</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2130,12 +1736,6 @@
       <c r="B66" t="n">
         <v>424</v>
       </c>
-      <c r="C66" t="n">
-        <v>-281.3460587909236</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1188.599110399139</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2144,12 +1744,6 @@
       <c r="B67" t="n">
         <v>424</v>
       </c>
-      <c r="C67" t="n">
-        <v>-341.3143876699858</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1135.529793030595</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2158,12 +1752,6 @@
       <c r="B68" t="n">
         <v>423</v>
       </c>
-      <c r="C68" t="n">
-        <v>-316.1159139548205</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1139.89194758739</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2172,12 +1760,6 @@
       <c r="B69" t="n">
         <v>423</v>
       </c>
-      <c r="C69" t="n">
-        <v>-313.1568609574044</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1174.207007610303</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2186,12 +1768,6 @@
       <c r="B70" t="n">
         <v>423</v>
       </c>
-      <c r="C70" t="n">
-        <v>-282.6540446506584</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1122.784308938292</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2200,12 +1776,6 @@
       <c r="B71" t="n">
         <v>423</v>
       </c>
-      <c r="C71" t="n">
-        <v>-259.2966762652333</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1128.491520893191</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2214,12 +1784,6 @@
       <c r="B72" t="n">
         <v>422</v>
       </c>
-      <c r="C72" t="n">
-        <v>-236.1988337576491</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1146.735805268781</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2228,12 +1792,6 @@
       <c r="B73" t="n">
         <v>422</v>
       </c>
-      <c r="C73" t="n">
-        <v>-330.2596461055865</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1137.033407572068</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2242,12 +1800,6 @@
       <c r="B74" t="n">
         <v>422</v>
       </c>
-      <c r="C74" t="n">
-        <v>-331.2953536989633</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1118.547467434849</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2255,12 +1807,6 @@
       </c>
       <c r="B75" t="n">
         <v>422</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-301.6729839802035</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1086.944740013963</v>
       </c>
     </row>
   </sheetData>
